--- a/php_commands.xlsx
+++ b/php_commands.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsbwit-my.sharepoint.com/personal/apasvoss_fsbwit_org/Documents/InetTechnologien/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D96E5C0F-F8CC-42AE-B33E-61F1DE3E8CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9BB570-4925-4CE0-8E57-52E174610EA0}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{321198AA-8D22-4A61-98FF-6837E299DFCD}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,62 +22,81 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
-    <t>Zeit</t>
-  </si>
-  <si>
-    <t>&lt;?php $zeit = time(); ?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;Test PHP &lt;?=$zeit?&gt;&lt;/h1&gt;</t>
-  </si>
-  <si>
-    <t>String-Funktionen</t>
-  </si>
-  <si>
-    <r>
-      <t>echo strlen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t xml:space="preserve">Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php $zeit = time(); ?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1&gt;Test PHP &lt;?=$zeit?&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String-Funktionen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo strlen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: 5</t>
     </r>
   </si>
   <si>
     <r>
-      <t>strpos()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strpos()</t>
     </r>
     <r>
       <rPr>
@@ -101,12 +104,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> gibt die Position eines Teilstrings in einem String zurück.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gibt die Position eines Teilstrings in einem String zurück.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$phrase </t>
     </r>
     <r>
@@ -115,8 +126,9 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
     </r>
     <r>
       <rPr>
@@ -124,6 +136,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Ich bin ein PHP-Entwickler"</t>
     </r>
@@ -133,12 +146,20 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$position </t>
     </r>
     <r>
@@ -147,16 +168,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> strpos</t>
     </r>
@@ -166,26 +189,29 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -193,6 +219,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "PHP"</t>
     </r>
@@ -202,20 +229,30 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $position</t>
     </r>
@@ -225,22 +262,31 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: 12</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$position </t>
     </r>
     <r>
@@ -249,16 +295,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> strpos</t>
     </r>
@@ -268,26 +316,29 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -295,6 +346,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Python"</t>
     </r>
@@ -304,20 +356,30 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $position</t>
     </r>
@@ -327,23 +389,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: -1 (nicht gefunden)</t>
     </r>
   </si>
   <si>
     <r>
-      <t>str_contains()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_contains()</t>
     </r>
     <r>
       <rPr>
@@ -351,12 +422,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> prüft, ob ein String einen bestimmte Teilstring enthält.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> prüft, ob ein String einen bestimmte Teilstring enthält.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$contains </t>
     </r>
     <r>
@@ -365,16 +444,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> str_contains</t>
     </r>
@@ -384,26 +465,29 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -411,6 +495,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "PHP"</t>
     </r>
@@ -420,20 +505,29 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8839EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -443,21 +537,31 @@
         <color rgb="FF4C4F69"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>$contains</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>) {</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$contains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">    echo</t>
     </r>
     <r>
@@ -466,6 +570,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "PHP ist enthalten"</t>
     </r>
@@ -475,13 +580,21 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>}</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
     </r>
     <r>
       <rPr>
@@ -489,6 +602,7 @@
         <color rgb="FF8839EF"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> else</t>
     </r>
@@ -498,12 +612,21 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> {</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">    echo</t>
     </r>
     <r>
@@ -512,6 +635,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "PHP ist nicht enthalten"</t>
     </r>
@@ -521,16 +645,24 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <r>
-      <t>str_starts_with()</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_starts_with()</t>
     </r>
     <r>
       <rPr>
@@ -538,8 +670,9 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> und </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
     </r>
     <r>
       <rPr>
@@ -547,8 +680,9 @@
         <color rgb="FFD63384"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>str_ends_with()</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_ends_with()</t>
     </r>
     <r>
       <rPr>
@@ -556,59 +690,72 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> überprüfen, ob ein String mit einem bestimmten Teilstring beginnt oder endet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> überprüfen, ob ein String mit einem bestimmten Teilstring beginnt oder endet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8839EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>str_starts_with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_starts_with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -616,6 +763,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Ich"</t>
     </r>
@@ -625,12 +773,21 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>)) {</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">    echo</t>
     </r>
     <r>
@@ -639,6 +796,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Beginnt mit Ich"</t>
     </r>
@@ -648,59 +806,72 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8839EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>str_ends_with</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_ends_with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -708,6 +879,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "ler"</t>
     </r>
@@ -717,12 +889,21 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>)) {</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">    echo</t>
     </r>
     <r>
@@ -731,6 +912,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Endet mit ler"</t>
     </r>
@@ -740,13 +922,21 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>strrev()</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strrev()</t>
     </r>
     <r>
       <rPr>
@@ -754,12 +944,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> kehrt die Reihenfolge der Zeichen in einem String um.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kehrt die Reihenfolge der Zeichen in einem String um.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$name </t>
     </r>
     <r>
@@ -768,8 +966,9 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
     </r>
     <r>
       <rPr>
@@ -777,6 +976,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Kevin"</t>
     </r>
@@ -786,12 +986,20 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$reversed </t>
     </r>
     <r>
@@ -800,16 +1008,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> strrev</t>
     </r>
@@ -819,38 +1029,50 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $reversed</t>
     </r>
@@ -860,23 +1082,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: niveK</t>
     </r>
   </si>
   <si>
     <r>
-      <t>str_repeat()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_repeat()</t>
     </r>
     <r>
       <rPr>
@@ -884,12 +1115,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> wiederholt einen String eine bestimmte Anzahl von Malen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wiederholt einen String eine bestimmte Anzahl von Malen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$repeated </t>
     </r>
     <r>
@@ -898,16 +1137,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> str_repeat</t>
     </r>
@@ -917,26 +1158,29 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -944,6 +1188,7 @@
         <color rgb="FFFE640B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -953,20 +1198,30 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $repeated</t>
     </r>
@@ -976,23 +1231,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: KevinKevinKevin</t>
     </r>
   </si>
   <si>
     <r>
-      <t>substr()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">substr()</t>
     </r>
     <r>
       <rPr>
@@ -1000,12 +1264,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> gibt einen Teil eines Strings zurück.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gibt einen Teil eines Strings zurück.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$teil </t>
     </r>
     <r>
@@ -1014,16 +1286,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> substr</t>
     </r>
@@ -1033,26 +1307,29 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -1060,6 +1337,7 @@
         <color rgb="FFFE640B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 12</t>
     </r>
@@ -1069,8 +1347,9 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -1078,6 +1357,7 @@
         <color rgb="FFFE640B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -1087,20 +1367,30 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $teil</t>
     </r>
@@ -1110,23 +1400,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: PHP</t>
     </r>
   </si>
   <si>
     <r>
-      <t>str_replace()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str_replace()</t>
     </r>
     <r>
       <rPr>
@@ -1134,12 +1433,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> ersetzt einen Teil eines Strings durch einen anderen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ersetzt einen Teil eines Strings durch einen anderen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$newPhrase </t>
     </r>
     <r>
@@ -1148,16 +1455,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> str_replace</t>
     </r>
@@ -1167,8 +1476,9 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -1176,17 +1486,19 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>"PHP"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"PHP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -1194,6 +1506,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "Python"</t>
     </r>
@@ -1203,15 +1516,17 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $phrase</t>
     </r>
@@ -1221,20 +1536,30 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $newPhrase</t>
     </r>
@@ -1244,23 +1569,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: Ich bin ein Python-Entwickler</t>
     </r>
   </si>
   <si>
     <r>
-      <t>strtolower()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strtolower()</t>
     </r>
     <r>
       <rPr>
@@ -1268,12 +1602,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> wandelt einen String in Kleinbuchstaben um.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wandelt einen String in Kleinbuchstaben um.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$lower </t>
     </r>
     <r>
@@ -1282,16 +1624,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> strtolower</t>
     </r>
@@ -1301,38 +1645,50 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $lower</t>
     </r>
@@ -1342,23 +1698,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: ich bin ein php-entwickler</t>
     </r>
   </si>
   <si>
     <r>
-      <t>strtoupper()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strtoupper()</t>
     </r>
     <r>
       <rPr>
@@ -1366,12 +1731,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> wandelt einen String in Großbuchstaben um.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wandelt einen String in Großbuchstaben um.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$upper </t>
     </r>
     <r>
@@ -1380,16 +1753,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> strtoupper</t>
     </r>
@@ -1399,38 +1774,50 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $upper</t>
     </r>
@@ -1440,23 +1827,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: ICH BIN EIN PHP-ENTWICKLER</t>
     </r>
   </si>
   <si>
     <r>
-      <t>trim()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">trim()</t>
     </r>
     <r>
       <rPr>
@@ -1464,12 +1860,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> entfernt Leerzeichen am Anfang und Ende eines Strings.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> entfernt Leerzeichen am Anfang und Ende eines Strings.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$phrase </t>
     </r>
     <r>
@@ -1478,8 +1882,9 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
     </r>
     <r>
       <rPr>
@@ -1487,6 +1892,7 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "   Hallo   "</t>
     </r>
@@ -1496,21 +1902,30 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$trimmed </t>
     </r>
     <r>
@@ -1519,16 +1934,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> trim</t>
     </r>
@@ -1538,38 +1955,50 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>echo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $trimmed</t>
     </r>
@@ -1579,23 +2008,32 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: Hallo</t>
     </r>
   </si>
   <si>
     <r>
-      <t>explode()</t>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FFD63384"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">explode()</t>
     </r>
     <r>
       <rPr>
@@ -1603,12 +2041,20 @@
         <color rgb="FF212529"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
-      </rPr>
-      <t> teilt einen String in ein Array auf.</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> teilt einen String in ein Array auf.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">$words </t>
     </r>
     <r>
@@ -1617,16 +2063,18 @@
         <color rgb="FF179299"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF1E66F5"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> explode</t>
     </r>
@@ -1636,8 +2084,9 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>(</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -1645,24 +2094,27 @@
         <color rgb="FF40A02B"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>" "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> $phrase</t>
     </r>
@@ -1672,48 +2124,61 @@
         <color rgb="FF7C7F93"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print_r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4C4F69"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>$words</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7C7F93"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF1E66F5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">print_r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4C4F69"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$words</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7C7F93"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="10"/>
         <color rgb="FF9CA0B0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  // Ausgabe: Array([0] =&gt; Ich, [1] =&gt; bin, [2] =&gt; ein, [3] =&gt; PHP-Ent</t>
     </r>
@@ -1722,87 +2187,117 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCF8E6D"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF1E66F5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="JetBrains Mono"/>
+      <color rgb="FF7C7F93"/>
+      <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4C4F69"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF1E66F5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7C7F93"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <i/>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF9CA0B0"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD63384"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFD63384"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF179299"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF40A02B"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF8839EF"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFE640B"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1815,12 +2310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFF1F5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1828,251 +2323,244 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEFF1F5"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF179299"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF7C7F93"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFD63384"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFCF8E6D"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF1E66F5"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFE640B"/>
+      <rgbColor rgb="FF4C4F69"/>
+      <rgbColor rgb="FF9CA0B0"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF40A02B"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF8839EF"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF212529"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -2080,33 +2568,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -2119,13 +2598,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -2135,15 +2608,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -2151,7 +2622,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -2159,364 +2629,346 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E201086D-E6AE-4966-9381-651C1B1C4D53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A3:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="80.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25">
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25">
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="34.5">
+    <row r="25" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17.25">
+    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="17.25">
+    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="17.25">
+    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.25">
+    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="17.25">
+    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="17.25">
+    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.25">
+    <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="17.25">
+    <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>